--- a/docentes/Flores Ovalle Victor - Estadisticos 20211.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Mat</t>
   </si>
@@ -76,16 +76,58 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
     <t>DEGANTE</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
     <t>BERNAL</t>
+  </si>
+  <si>
+    <t>JOSSELIN ANDREA</t>
+  </si>
+  <si>
+    <t>ESDRAS ALAN</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>JADE EMILY</t>
+  </si>
+  <si>
+    <t>YADIRA</t>
   </si>
   <si>
     <t>SHARITH</t>
@@ -495,16 +537,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>67.73999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -518,16 +563,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,16 +589,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>76.47</v>
+      </c>
+      <c r="H4">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +660,7 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -632,7 +683,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -655,7 +706,7 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -717,16 +768,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>67.73999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -740,16 +794,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -763,16 +820,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>76.47</v>
+      </c>
+      <c r="H4">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +842,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -817,47 +877,185 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920319</v>
+        <v>19330051920177</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>19330051920177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920273</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920278</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>18330051920336</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G9">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Flores Ovalle Victor - Estadisticos 20211.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 20211.xlsx
@@ -79,36 +79,36 @@
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MANZANET</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>DEGANTE</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
@@ -118,16 +118,16 @@
     <t>JOSSELIN ANDREA</t>
   </si>
   <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>JADE EMILY</t>
+  </si>
+  <si>
+    <t>YADIRA</t>
+  </si>
+  <si>
     <t>ESDRAS ALAN</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>JADE EMILY</t>
-  </si>
-  <si>
-    <t>YADIRA</t>
   </si>
   <si>
     <t>SHARITH</t>
@@ -923,7 +923,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920273</v>
+        <v>19330051920278</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920278</v>
+        <v>19330051920286</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920286</v>
+        <v>18330051920346</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -987,12 +987,12 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920346</v>
+        <v>19330051920273</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -1010,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
